--- a/src/test/resources/excel/dev.xlsx
+++ b/src/test/resources/excel/dev.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>feature</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>edge</t>
   </si>
 </sst>
 </file>
@@ -479,7 +485,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.13"/>
+    <col customWidth="1" min="1" max="1" width="14.75"/>
     <col customWidth="1" min="2" max="2" width="35.88"/>
     <col customWidth="1" min="3" max="3" width="54.75"/>
   </cols>
@@ -518,6 +524,40 @@
         <v>19</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
